--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,9 +40,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
@@ -58,34 +55,34 @@
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>positive</t>
   </si>
   <si>
     <t>thank</t>
@@ -94,73 +91,64 @@
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>energy</t>
+    <t>hand</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>care</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>increase</t>
   </si>
 </sst>
 </file>
@@ -518,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -526,10 +514,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -587,13 +575,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -605,19 +593,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -637,13 +625,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.96</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -655,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -687,13 +675,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.6198630136986302</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -705,19 +693,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>111</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -729,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -737,13 +725,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7142857142857143</v>
+        <v>0.1705426356589147</v>
       </c>
       <c r="C6">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="D6">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -755,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>44</v>
+        <v>428</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.9375</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -779,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -787,13 +775,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3133047210300429</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C7">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -805,169 +793,97 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="L7">
+        <v>40</v>
+      </c>
+      <c r="M7">
+        <v>40</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L8">
+        <v>30</v>
+      </c>
+      <c r="M8">
+        <v>30</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>0.8292682926829268</v>
+      </c>
+      <c r="L9">
+        <v>68</v>
+      </c>
+      <c r="M9">
+        <v>68</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K7">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="L7">
-        <v>10</v>
-      </c>
-      <c r="M7">
-        <v>10</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.2209302325581395</v>
-      </c>
-      <c r="C8">
-        <v>19</v>
-      </c>
-      <c r="D8">
-        <v>19</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>67</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="K10">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L10">
         <v>22</v>
       </c>
-      <c r="K8">
-        <v>0.9</v>
-      </c>
-      <c r="L8">
-        <v>36</v>
-      </c>
-      <c r="M8">
-        <v>36</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.15</v>
-      </c>
-      <c r="C9">
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <v>12</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>68</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L9">
-        <v>45</v>
-      </c>
-      <c r="M9">
-        <v>45</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>100</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10">
-        <v>0.8703703703703703</v>
-      </c>
-      <c r="L10">
-        <v>47</v>
-      </c>
       <c r="M10">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -979,21 +895,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>0.8571428571428571</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L11">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1005,21 +921,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>0.8518518518518519</v>
+        <v>0.78125</v>
       </c>
       <c r="L12">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1031,21 +947,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.8461538461538461</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L13">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M13">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1057,21 +973,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.803921568627451</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L14">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="M14">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1083,21 +999,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7692307692307693</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="L15">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="M15">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1109,21 +1025,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.7413793103448276</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L16">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M16">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1135,21 +1051,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.7241379310344828</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L17">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M17">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1161,21 +1077,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.7058823529411765</v>
+        <v>0.7</v>
       </c>
       <c r="L18">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="M18">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1187,21 +1103,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6986301369863014</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L19">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="M19">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1213,21 +1129,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6923076923076923</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L20">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="M20">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1239,21 +1155,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.68</v>
+        <v>0.6</v>
       </c>
       <c r="L21">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1265,21 +1181,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.6470588235294118</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L22">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="M22">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1291,21 +1207,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.6363636363636364</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L23">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M23">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1317,21 +1233,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.625</v>
+        <v>0.5509138381201044</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1343,21 +1259,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.6060606060606061</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="L25">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M25">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1369,21 +1285,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.4764705882352941</v>
       </c>
       <c r="L26">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="M26">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1395,21 +1311,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.6</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L27">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M27">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1421,21 +1337,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.5211267605633803</v>
+        <v>0.4305084745762712</v>
       </c>
       <c r="L28">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="M28">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1447,21 +1363,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>102</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.5208333333333334</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L29">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="M29">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1473,21 +1389,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>0.5</v>
+        <v>0.34375</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M30">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1499,21 +1415,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K31">
-        <v>0.4571428571428571</v>
+        <v>0.3263598326359833</v>
       </c>
       <c r="L31">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="M31">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1525,21 +1441,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>19</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K32">
-        <v>0.4285714285714285</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L32">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M32">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1551,21 +1467,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>0.4186046511627907</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="L33">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="M33">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1577,33 +1493,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17">
-      <c r="J34" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K34">
-        <v>0.4130434782608696</v>
-      </c>
-      <c r="L34">
-        <v>38</v>
-      </c>
-      <c r="M34">
-        <v>38</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,12 +43,12 @@
     <t>crude</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -67,88 +67,79 @@
     <t>best</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>love</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>thank</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
-    <t>healthy</t>
+    <t>support</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>help</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>increase</t>
   </si>
 </sst>
 </file>
@@ -506,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -517,7 +508,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -575,13 +566,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -593,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>14</v>
@@ -625,13 +616,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6388888888888888</v>
+        <v>0.613013698630137</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -643,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
@@ -675,13 +666,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6198630136986302</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C5">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -693,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
@@ -725,13 +716,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1705426356589147</v>
+        <v>0.1763565891472868</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D6">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -743,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -767,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -775,13 +766,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1428571428571428</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -793,19 +784,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K7">
-        <v>0.8695652173913043</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -817,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -825,13 +816,13 @@
         <v>19</v>
       </c>
       <c r="K8">
-        <v>0.8333333333333334</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -843,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -877,13 +868,13 @@
         <v>21</v>
       </c>
       <c r="K10">
-        <v>0.8148148148148148</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L10">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -895,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -903,13 +894,13 @@
         <v>22</v>
       </c>
       <c r="K11">
-        <v>0.7931034482758621</v>
+        <v>0.796875</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="M11">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -921,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -929,13 +920,13 @@
         <v>23</v>
       </c>
       <c r="K12">
-        <v>0.78125</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="M12">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -947,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -955,13 +946,13 @@
         <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7583333333333333</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="L13">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M13">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -973,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -981,13 +972,13 @@
         <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7407407407407407</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L14">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="M14">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -999,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1033,13 +1024,13 @@
         <v>27</v>
       </c>
       <c r="K16">
-        <v>0.7254901960784313</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L16">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="M16">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1051,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1059,13 +1050,13 @@
         <v>28</v>
       </c>
       <c r="K17">
-        <v>0.7222222222222222</v>
+        <v>0.71875</v>
       </c>
       <c r="L17">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="M17">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1077,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1085,13 +1076,13 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.7</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L18">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1103,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1111,13 +1102,13 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6792452830188679</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L19">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="M19">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1129,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1137,13 +1128,13 @@
         <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6190476190476191</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L20">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1155,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1163,13 +1154,13 @@
         <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1181,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1189,13 +1180,13 @@
         <v>33</v>
       </c>
       <c r="K22">
-        <v>0.5851063829787234</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L22">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1207,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1215,13 +1206,13 @@
         <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5833333333333334</v>
+        <v>0.54</v>
       </c>
       <c r="L23">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1233,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1241,13 +1232,13 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5509138381201044</v>
+        <v>0.5039164490861618</v>
       </c>
       <c r="L24">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="M24">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1259,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>172</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1267,13 +1258,13 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5319148936170213</v>
+        <v>0.4647058823529412</v>
       </c>
       <c r="L25">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="M25">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1285,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>22</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1293,13 +1284,13 @@
         <v>37</v>
       </c>
       <c r="K26">
-        <v>0.4764705882352941</v>
+        <v>0.4101694915254237</v>
       </c>
       <c r="L26">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="M26">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1311,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1319,13 +1310,13 @@
         <v>38</v>
       </c>
       <c r="K27">
-        <v>0.449438202247191</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="L27">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M27">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1337,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1345,13 +1336,13 @@
         <v>39</v>
       </c>
       <c r="K28">
-        <v>0.4305084745762712</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="L28">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c r="M28">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1363,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>168</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1371,13 +1362,13 @@
         <v>40</v>
       </c>
       <c r="K29">
-        <v>0.3561643835616438</v>
+        <v>0.3514644351464435</v>
       </c>
       <c r="L29">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M29">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1389,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>47</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1397,7 +1388,7 @@
         <v>41</v>
       </c>
       <c r="K30">
-        <v>0.34375</v>
+        <v>0.3013698630136986</v>
       </c>
       <c r="L30">
         <v>22</v>
@@ -1415,85 +1406,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="10:17">
-      <c r="J31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K31">
-        <v>0.3263598326359833</v>
-      </c>
-      <c r="L31">
-        <v>78</v>
-      </c>
-      <c r="M31">
-        <v>78</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="32" spans="10:17">
-      <c r="J32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K32">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="L32">
-        <v>20</v>
-      </c>
-      <c r="M32">
-        <v>20</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17">
-      <c r="J33" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K33">
-        <v>0.2692307692307692</v>
-      </c>
-      <c r="L33">
-        <v>21</v>
-      </c>
-      <c r="M33">
-        <v>21</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,12 +43,12 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -58,22 +58,28 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>positive</t>
   </si>
   <si>
     <t>thanks</t>
@@ -85,61 +91,79 @@
     <t>thank</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>safety</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>credit</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
+    <t>energy</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>protect</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -497,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -508,7 +532,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -566,13 +590,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9117647058823529</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -584,19 +608,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -608,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -616,13 +640,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.613013698630137</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C4">
-        <v>179</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>179</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -634,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9696969696969697</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -658,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -666,13 +690,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6111111111111112</v>
+        <v>0.6061643835616438</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -684,19 +708,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9322033898305084</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -708,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -716,13 +740,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1763565891472868</v>
+        <v>0.189922480620155</v>
       </c>
       <c r="C6">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D6">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -734,19 +758,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8913043478260869</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="M6">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -758,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -766,13 +790,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1587301587301587</v>
+        <v>0.164021164021164</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -784,19 +808,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K7">
-        <v>0.8839285714285714</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L7">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -808,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -816,7 +840,7 @@
         <v>19</v>
       </c>
       <c r="K8">
-        <v>0.8518518518518519</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L8">
         <v>23</v>
@@ -834,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -842,13 +866,13 @@
         <v>20</v>
       </c>
       <c r="K9">
-        <v>0.8292682926829268</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L9">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="M9">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -860,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -868,13 +892,13 @@
         <v>21</v>
       </c>
       <c r="K10">
-        <v>0.8055555555555556</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -886,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -894,13 +918,13 @@
         <v>22</v>
       </c>
       <c r="K11">
-        <v>0.796875</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L11">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="M11">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -912,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -920,13 +944,13 @@
         <v>23</v>
       </c>
       <c r="K12">
-        <v>0.7931034482758621</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -938,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -946,13 +970,13 @@
         <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7833333333333333</v>
+        <v>0.765625</v>
       </c>
       <c r="L13">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M13">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -964,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -972,13 +996,13 @@
         <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7452830188679245</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L14">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="M14">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -990,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -998,13 +1022,13 @@
         <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7394366197183099</v>
+        <v>0.7253521126760564</v>
       </c>
       <c r="L15">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M15">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1016,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1050,13 +1074,13 @@
         <v>28</v>
       </c>
       <c r="K17">
-        <v>0.71875</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L17">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="M17">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1068,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1076,13 +1100,13 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.7058823529411765</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L18">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M18">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1094,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1102,13 +1126,13 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6349206349206349</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L19">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="M19">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1120,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1128,13 +1152,13 @@
         <v>31</v>
       </c>
       <c r="K20">
-        <v>0.5833333333333334</v>
+        <v>0.68125</v>
       </c>
       <c r="L20">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="M20">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1146,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1154,13 +1178,13 @@
         <v>32</v>
       </c>
       <c r="K21">
-        <v>0.574468085106383</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L21">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1172,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1180,13 +1204,13 @@
         <v>33</v>
       </c>
       <c r="K22">
-        <v>0.574468085106383</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1198,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1206,13 +1230,13 @@
         <v>34</v>
       </c>
       <c r="K23">
-        <v>0.54</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L23">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1224,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1232,13 +1256,13 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5039164490861618</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L24">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="M24">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1250,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>190</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1258,13 +1282,13 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.4647058823529412</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L25">
-        <v>158</v>
+        <v>28</v>
       </c>
       <c r="M25">
-        <v>158</v>
+        <v>28</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1276,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>182</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1284,13 +1308,13 @@
         <v>37</v>
       </c>
       <c r="K26">
-        <v>0.4101694915254237</v>
+        <v>0.58</v>
       </c>
       <c r="L26">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1302,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>174</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1310,13 +1334,13 @@
         <v>38</v>
       </c>
       <c r="K27">
-        <v>0.4044943820224719</v>
+        <v>0.525</v>
       </c>
       <c r="L27">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="M27">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1328,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1336,13 +1360,13 @@
         <v>39</v>
       </c>
       <c r="K28">
-        <v>0.3692307692307693</v>
+        <v>0.5221932114882507</v>
       </c>
       <c r="L28">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="M28">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1354,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>41</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1362,13 +1386,13 @@
         <v>40</v>
       </c>
       <c r="K29">
-        <v>0.3514644351464435</v>
+        <v>0.4823529411764706</v>
       </c>
       <c r="L29">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="M29">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1380,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1388,13 +1412,13 @@
         <v>41</v>
       </c>
       <c r="K30">
-        <v>0.3013698630136986</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L30">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="M30">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1406,7 +1430,215 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>51</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31">
+        <v>0.4246575342465753</v>
+      </c>
+      <c r="L31">
+        <v>31</v>
+      </c>
+      <c r="M31">
+        <v>31</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K32">
+        <v>0.4222222222222222</v>
+      </c>
+      <c r="L32">
+        <v>19</v>
+      </c>
+      <c r="M32">
+        <v>19</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33">
+        <v>0.4203389830508474</v>
+      </c>
+      <c r="L33">
+        <v>124</v>
+      </c>
+      <c r="M33">
+        <v>124</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K34">
+        <v>0.3538461538461539</v>
+      </c>
+      <c r="L34">
+        <v>23</v>
+      </c>
+      <c r="M34">
+        <v>23</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L35">
+        <v>26</v>
+      </c>
+      <c r="M35">
+        <v>26</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K36">
+        <v>0.3305439330543933</v>
+      </c>
+      <c r="L36">
+        <v>79</v>
+      </c>
+      <c r="M36">
+        <v>79</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K37">
+        <v>0.296875</v>
+      </c>
+      <c r="L37">
+        <v>19</v>
+      </c>
+      <c r="M37">
+        <v>19</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K38">
+        <v>0.006437077566784679</v>
+      </c>
+      <c r="L38">
+        <v>20</v>
+      </c>
+      <c r="M38">
+        <v>20</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>3087</v>
       </c>
     </row>
   </sheetData>
